--- a/Chips704-1050Prod2016-02.xlsx
+++ b/Chips704-1050Prod2016-02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="31">
   <si>
     <t>Final status</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>LPNHE</t>
+  </si>
+  <si>
+    <t>Missed at LAL</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>FLEX DAMIC</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -318,6 +330,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X800"/>
+  <dimension ref="A1:X801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I248" sqref="I248"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,30 +700,38 @@
       </c>
       <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>704</v>
-      </c>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>584</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="21"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B3" s="22"/>
       <c r="D3" s="8"/>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B4" s="22"/>
       <c r="D4" s="8"/>
@@ -708,7 +741,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B5" s="22"/>
       <c r="D5" s="8"/>
@@ -717,8 +750,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>708</v>
+      <c r="A6" s="21">
+        <v>707</v>
       </c>
       <c r="B6" s="22"/>
       <c r="D6" s="8"/>
@@ -728,7 +761,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B7" s="22"/>
       <c r="D7" s="8"/>
@@ -738,28 +771,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B8" s="22"/>
       <c r="D8" s="8"/>
       <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="22"/>
       <c r="D9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="22"/>
       <c r="D10" s="8"/>
@@ -769,7 +802,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="22"/>
       <c r="D11" s="8"/>
@@ -779,7 +812,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" s="22"/>
       <c r="D12" s="8"/>
@@ -789,7 +822,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" s="22"/>
       <c r="D13" s="8"/>
@@ -799,7 +832,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" s="22"/>
       <c r="D14" s="8"/>
@@ -807,92 +840,96 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>716</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>717</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>718</v>
-      </c>
       <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="8"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="22"/>
       <c r="D17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>26</v>
+      <c r="F17" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
-        <v>720</v>
-      </c>
-      <c r="B18" s="22"/>
+        <v>719</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
+      <c r="F18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B19" s="22"/>
       <c r="D19" s="8"/>
       <c r="F19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B20" s="22"/>
       <c r="D20" s="8"/>
-      <c r="F20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
-        <v>723</v>
-      </c>
-      <c r="B21" s="22"/>
+        <v>722</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B22" s="22"/>
       <c r="D22" s="8"/>
@@ -900,61 +937,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>724</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>725</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>726</v>
-      </c>
       <c r="B24" s="22"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="8"/>
-      <c r="F24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
-        <v>727</v>
-      </c>
-      <c r="B25" s="22"/>
+        <v>726</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>7</v>
+      <c r="F25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
-        <v>728</v>
-      </c>
-      <c r="B26" s="22"/>
+        <v>727</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B27" s="22"/>
       <c r="D27" s="8"/>
@@ -964,44 +1005,46 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B28" s="22"/>
       <c r="D28" s="8"/>
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>730</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>731</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>732</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B31" s="22"/>
       <c r="D31" s="8"/>
@@ -1011,7 +1054,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B32" s="22"/>
       <c r="D32" s="8"/>
@@ -1021,7 +1064,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B33" s="22"/>
       <c r="D33" s="8"/>
@@ -1031,7 +1074,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B34" s="22"/>
       <c r="D34" s="8"/>
@@ -1041,7 +1084,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B35" s="22"/>
       <c r="D35" s="8"/>
@@ -1051,7 +1094,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B36" s="22"/>
       <c r="D36" s="8"/>
@@ -1061,7 +1104,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B37" s="22"/>
       <c r="D37" s="8"/>
@@ -1071,27 +1114,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B38" s="22"/>
       <c r="D38" s="8"/>
-      <c r="F38" s="9" t="s">
-        <v>14</v>
+      <c r="F38" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
-        <v>741</v>
-      </c>
-      <c r="B39" s="22"/>
+        <v>740</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="D39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>7</v>
+      <c r="F39" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B40" s="22"/>
       <c r="D40" s="8"/>
@@ -1101,7 +1146,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B41" s="22"/>
       <c r="D41" s="8"/>
@@ -1111,7 +1156,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B42" s="22"/>
       <c r="D42" s="8"/>
@@ -1120,31 +1165,25 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>745</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="A43" s="23">
+        <v>744</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
-        <v>746</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+        <v>745</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="D44" s="28" t="s">
         <v>7</v>
       </c>
@@ -1159,9 +1198,11 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
-        <v>747</v>
-      </c>
-      <c r="B45" s="27"/>
+        <v>746</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="C45" s="27"/>
       <c r="D45" s="28" t="s">
         <v>7</v>
@@ -1177,9 +1218,11 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
-        <v>748</v>
-      </c>
-      <c r="B46" s="27"/>
+        <v>747</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" s="27"/>
       <c r="D46" s="28" t="s">
         <v>7</v>
@@ -1195,12 +1238,14 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
-        <v>749</v>
-      </c>
-      <c r="B47" s="27"/>
+        <v>748</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="C47" s="27"/>
       <c r="D47" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28" t="s">
@@ -1212,20 +1257,28 @@
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
-        <v>750</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="D48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A48" s="27">
+        <v>749</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B49" s="22"/>
       <c r="D49" s="8" t="s">
@@ -1234,11 +1287,10 @@
       <c r="F49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B50" s="22"/>
       <c r="D50" s="8" t="s">
@@ -1247,10 +1299,11 @@
       <c r="F50" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B51" s="22"/>
       <c r="D51" s="8" t="s">
@@ -1262,7 +1315,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="8" t="s">
@@ -1274,34 +1327,36 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B53" s="22"/>
-      <c r="D53" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>17</v>
+      <c r="D53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
-        <v>756</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="D54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>7</v>
+        <v>755</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B55" s="22"/>
       <c r="D55" s="8" t="s">
@@ -1312,89 +1367,93 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
+      <c r="A56" s="21">
+        <v>757</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="D56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
         <v>758</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
-        <v>759</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="D57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
-        <v>760</v>
-      </c>
-      <c r="B58" s="22"/>
+        <v>759</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="D59" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>17</v>
+      <c r="D59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
-        <v>762</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="D60" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="21"/>
+        <v>761</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B61" s="22"/>
-      <c r="D61" s="8" t="s">
-        <v>7</v>
+      <c r="D61" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B62" s="22"/>
       <c r="D62" s="8" t="s">
@@ -1406,7 +1465,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B63" s="22"/>
       <c r="D63" s="8" t="s">
@@ -1417,79 +1476,81 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
+      <c r="A64" s="21">
+        <v>765</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="D64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
         <v>766</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
-        <v>767</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="D65" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B66" s="22"/>
       <c r="D66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>768</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I67" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
         <v>769</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>770</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="D68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B69" s="22"/>
-      <c r="D69" s="13" t="s">
-        <v>15</v>
+      <c r="D69" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>7</v>
@@ -1497,34 +1558,36 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="D70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I70" s="13" t="s">
-        <v>15</v>
+      <c r="F70" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
-        <v>773</v>
-      </c>
-      <c r="B71" s="22"/>
+        <v>772</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D71" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>7</v>
+      <c r="F71" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B72" s="22"/>
       <c r="D72" s="8" t="s">
@@ -1536,7 +1599,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B73" s="22"/>
       <c r="D73" s="8" t="s">
@@ -1548,7 +1611,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B74" s="22"/>
       <c r="D74" s="8" t="s">
@@ -1560,7 +1623,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B75" s="22"/>
       <c r="D75" s="8" t="s">
@@ -1572,7 +1635,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B76" s="22"/>
       <c r="D76" s="8" t="s">
@@ -1584,7 +1647,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B77" s="22"/>
       <c r="D77" s="8" t="s">
@@ -1596,7 +1659,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B78" s="22"/>
       <c r="D78" s="8" t="s">
@@ -1608,11 +1671,11 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="D79" s="29" t="s">
-        <v>14</v>
+      <c r="D79" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>7</v>
@@ -1620,32 +1683,31 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
+        <v>781</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="D80" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
         <v>782</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="D80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
-        <v>783</v>
-      </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="B81" s="22"/>
+      <c r="D81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
@@ -1658,7 +1720,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
@@ -1671,7 +1733,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -1684,7 +1746,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -1697,7 +1759,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -1710,7 +1772,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="31">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -1723,7 +1785,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="31">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -1736,7 +1798,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -1749,7 +1811,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
@@ -1757,24 +1819,25 @@
       <c r="E90" s="31"/>
       <c r="F90" s="10"/>
       <c r="G90" s="31"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
-        <v>793</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="D91" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A91" s="31">
+        <v>792</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B92" s="22"/>
       <c r="D92" s="8" t="s">
@@ -1786,7 +1849,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B93" s="22"/>
       <c r="D93" s="8" t="s">
@@ -1798,7 +1861,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B94" s="22"/>
       <c r="D94" s="8" t="s">
@@ -1810,7 +1873,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B95" s="22"/>
       <c r="D95" s="8" t="s">
@@ -1821,21 +1884,20 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="31">
-        <v>798</v>
-      </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
+      <c r="A96" s="21">
+        <v>797</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="D96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="31">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -1848,7 +1910,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="31">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
@@ -1860,33 +1922,33 @@
       <c r="I98" s="31"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="21">
+      <c r="A99" s="31">
+        <v>800</v>
+      </c>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
         <v>801</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="D99" s="13" t="s">
+      <c r="B100" s="22"/>
+      <c r="D100" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="31">
-        <v>802</v>
-      </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
+      <c r="F100" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="31">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
@@ -1899,7 +1961,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="31">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
@@ -1912,7 +1974,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="31">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
@@ -1925,7 +1987,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="31">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
@@ -1938,7 +2000,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="31">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
@@ -1950,22 +2012,21 @@
       <c r="I105" s="31"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="21">
-        <v>808</v>
-      </c>
-      <c r="B106" s="22"/>
-      <c r="D106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
+      <c r="A106" s="31">
+        <v>807</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B107" s="22"/>
       <c r="D107" s="8" t="s">
@@ -1979,62 +2040,60 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B108" s="22"/>
-      <c r="D108" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>14</v>
+      <c r="D108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
-      <c r="I108" s="29" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
-        <v>811</v>
-      </c>
-      <c r="B109" s="22"/>
-      <c r="D109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>7</v>
+        <v>810</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B110" s="22"/>
-      <c r="C110" s="12"/>
       <c r="D110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="12"/>
       <c r="F110" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
+      <c r="I110" s="31"/>
     </row>
     <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B111" s="22"/>
       <c r="C111" s="12"/>
-      <c r="D111" s="29" t="s">
-        <v>14</v>
+      <c r="D111" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="8" t="s">
@@ -2045,49 +2104,57 @@
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B112" s="22"/>
-      <c r="D112" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="12"/>
       <c r="F112" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I112" s="31"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B113" s="22"/>
       <c r="D113" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="F113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="31"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
-        <v>816</v>
-      </c>
-      <c r="B114" s="22"/>
+        <v>815</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D114" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B115" s="22"/>
       <c r="D115" s="8" t="s">
@@ -2099,38 +2166,40 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B116" s="22"/>
-      <c r="D116" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="29" t="s">
-        <v>14</v>
+      <c r="D116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
-        <v>819</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="D117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>7</v>
+        <v>818</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B118" s="22"/>
-      <c r="D118" s="13" t="s">
-        <v>15</v>
+      <c r="D118" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>7</v>
@@ -2138,34 +2207,36 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B119" s="22"/>
-      <c r="D119" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="29" t="s">
-        <v>14</v>
+      <c r="D119" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
-        <v>822</v>
-      </c>
-      <c r="B120" s="22"/>
-      <c r="D120" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>7</v>
+        <v>821</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="21">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B121" s="22"/>
       <c r="D121" s="8" t="s">
@@ -2177,80 +2248,70 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B122" s="22"/>
-      <c r="D122" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" s="8" t="s">
+      <c r="D122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
-        <v>825</v>
-      </c>
-      <c r="B123" s="22"/>
+        <v>824</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D123" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I123" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I123" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
-        <v>826</v>
-      </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="12"/>
+        <v>825</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F124" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="13" t="s">
+      <c r="I124" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
+        <v>826</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J124" s="21"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A125" s="31">
-        <v>827</v>
-      </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J125" s="21"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -2268,16 +2329,17 @@
       <c r="X125" s="1"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A126" s="21">
-        <v>828</v>
-      </c>
-      <c r="B126" s="22"/>
-      <c r="D126" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A126" s="31">
+        <v>827</v>
+      </c>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
       <c r="J126" s="21"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -2296,11 +2358,11 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="21">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B127" s="22"/>
-      <c r="D127" s="8" t="s">
-        <v>7</v>
+      <c r="D127" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>7</v>
@@ -2323,7 +2385,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="21">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B128" s="22"/>
       <c r="D128" s="8" t="s">
@@ -2350,7 +2412,7 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="21">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B129" s="22"/>
       <c r="D129" s="8" t="s">
@@ -2377,16 +2439,13 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="21">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B130" s="22"/>
-      <c r="D130" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="8" t="s">
+      <c r="D130" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J130" s="21"/>
@@ -2407,13 +2466,18 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="21">
-        <v>833</v>
-      </c>
-      <c r="B131" s="22"/>
-      <c r="D131" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J131" s="21"/>
@@ -2434,17 +2498,14 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="21">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B132" s="22"/>
-      <c r="D132" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="29" t="s">
-        <v>14</v>
+      <c r="D132" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="J132" s="21"/>
       <c r="K132" s="1"/>
@@ -2464,14 +2525,19 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="21">
-        <v>835</v>
-      </c>
-      <c r="B133" s="22"/>
-      <c r="D133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>7</v>
+        <v>834</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="J133" s="21"/>
       <c r="K133" s="1"/>
@@ -2489,43 +2555,58 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="21">
+        <v>835</v>
+      </c>
+      <c r="B134" s="22"/>
+      <c r="D134" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" s="21"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+    </row>
+    <row r="135" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
         <v>836</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="21"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A135" s="21">
-        <v>837</v>
-      </c>
       <c r="B135" s="22"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E135" s="12"/>
       <c r="F135" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="21">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B136" s="22"/>
-      <c r="D136" s="29" t="s">
-        <v>14</v>
+      <c r="D136" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>7</v>
@@ -2533,11 +2614,11 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="21">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B137" s="22"/>
-      <c r="D137" s="13" t="s">
-        <v>15</v>
+      <c r="D137" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>7</v>
@@ -2545,11 +2626,11 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="21">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B138" s="22"/>
-      <c r="D138" s="8" t="s">
-        <v>7</v>
+      <c r="D138" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>7</v>
@@ -2557,7 +2638,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="21">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B139" s="22"/>
       <c r="D139" s="8" t="s">
@@ -2569,7 +2650,7 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="21">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B140" s="22"/>
       <c r="D140" s="8" t="s">
@@ -2581,7 +2662,7 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="21">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B141" s="22"/>
       <c r="D141" s="8" t="s">
@@ -2593,7 +2674,7 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="21">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B142" s="22"/>
       <c r="D142" s="8" t="s">
@@ -2605,34 +2686,36 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="21">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B143" s="22"/>
       <c r="D143" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F143" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I143" s="8" t="s">
+      <c r="F143" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="21">
-        <v>846</v>
-      </c>
-      <c r="B144" s="22"/>
+        <v>845</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D144" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="21">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B145" s="22"/>
       <c r="D145" s="8" t="s">
@@ -2644,7 +2727,7 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="21">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B146" s="22"/>
       <c r="D146" s="8" t="s">
@@ -2656,7 +2739,7 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="21">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B147" s="22"/>
       <c r="D147" s="8" t="s">
@@ -2665,67 +2748,66 @@
       <c r="F147" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A148" s="31">
+      <c r="A148" s="21">
+        <v>849</v>
+      </c>
+      <c r="B148" s="22"/>
+      <c r="D148" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A149" s="31">
         <v>850</v>
       </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A149" s="24">
-        <v>851</v>
-      </c>
-      <c r="B149" s="22"/>
-      <c r="D149" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H149" s="20"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
+        <v>851</v>
+      </c>
+      <c r="B150" s="22"/>
+      <c r="D150" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A151" s="24">
         <v>852</v>
       </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A151" s="21">
-        <v>853</v>
-      </c>
       <c r="B151" s="22"/>
+      <c r="C151" s="24"/>
       <c r="D151" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E151" s="24"/>
       <c r="F151" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H151" s="21"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="21">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B152" s="22"/>
       <c r="D152" s="8" t="s">
@@ -2734,12 +2816,11 @@
       <c r="F152" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G152" s="21"/>
       <c r="H152" s="21"/>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="21">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B153" s="22"/>
       <c r="D153" s="8" t="s">
@@ -2750,24 +2831,10 @@
       </c>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
-      <c r="O153" s="17"/>
-      <c r="P153" s="17"/>
-      <c r="Q153" s="17"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="17"/>
-      <c r="T153" s="17"/>
-      <c r="U153" s="17"/>
-      <c r="V153" s="17"/>
-      <c r="W153" s="17"/>
-      <c r="X153" s="17"/>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="21">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B154" s="22"/>
       <c r="D154" s="8" t="s">
@@ -2795,7 +2862,7 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="21">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B155" s="22"/>
       <c r="D155" s="8" t="s">
@@ -2823,20 +2890,17 @@
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="21">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B156" s="22"/>
       <c r="D156" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>15</v>
+      <c r="F156" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G156" s="21"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="H156" s="21"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
       <c r="M156" s="17"/>
@@ -2854,17 +2918,22 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="21">
-        <v>859</v>
-      </c>
-      <c r="B157" s="22"/>
+        <v>858</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D157" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F157" s="8" t="s">
-        <v>7</v>
+      <c r="F157" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="K157" s="17"/>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
@@ -2882,20 +2951,17 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="21">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B158" s="22"/>
-      <c r="D158" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="29" t="s">
-        <v>14</v>
+      <c r="D158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
-      <c r="I158" s="29" t="s">
-        <v>14</v>
-      </c>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
@@ -2913,9 +2979,11 @@
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="21">
-        <v>861</v>
-      </c>
-      <c r="B159" s="22"/>
+        <v>860</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D159" s="29" t="s">
         <v>14</v>
       </c>
@@ -2924,8 +2992,8 @@
       </c>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
-      <c r="I159" s="8" t="s">
-        <v>7</v>
+      <c r="I159" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="K159" s="17"/>
       <c r="L159" s="17"/>
@@ -2944,17 +3012,22 @@
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="21">
-        <v>862</v>
-      </c>
-      <c r="B160" s="22"/>
-      <c r="D160" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>7</v>
+        <v>861</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
+      <c r="I160" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="K160" s="17"/>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
@@ -2972,7 +3045,7 @@
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="21">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B161" s="22"/>
       <c r="D161" s="8" t="s">
@@ -2981,6 +3054,8 @@
       <c r="F161" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
       <c r="M161" s="17"/>
@@ -2998,48 +3073,46 @@
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="21">
+        <v>863</v>
+      </c>
+      <c r="B162" s="22"/>
+      <c r="D162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
+      <c r="Q162" s="17"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="17"/>
+      <c r="T162" s="17"/>
+      <c r="U162" s="17"/>
+      <c r="V162" s="17"/>
+      <c r="W162" s="17"/>
+      <c r="X162" s="17"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A163" s="21">
         <v>864</v>
       </c>
-      <c r="B162" s="22"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="29" t="s">
+      <c r="B163" s="22"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="21"/>
-      <c r="F162" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="18"/>
-      <c r="U162" s="18"/>
-      <c r="V162" s="18"/>
-      <c r="W162" s="18"/>
-      <c r="X162" s="18"/>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A163" s="30">
-        <v>865</v>
-      </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="30"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
       <c r="J163" s="21"/>
       <c r="K163" s="18"/>
       <c r="L163" s="18"/>
@@ -3057,19 +3130,17 @@
       <c r="X163" s="18"/>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A164" s="21">
-        <v>866</v>
-      </c>
-      <c r="B164" s="22"/>
-      <c r="D164" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G164" s="21"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="21"/>
+      <c r="A164" s="30">
+        <v>865</v>
+      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
       <c r="J164" s="21"/>
       <c r="K164" s="18"/>
       <c r="L164" s="18"/>
@@ -3088,20 +3159,18 @@
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="21">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B165" s="22"/>
       <c r="D165" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F165" s="13" t="s">
-        <v>15</v>
+      <c r="F165" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="21"/>
       <c r="J165" s="21"/>
       <c r="K165" s="18"/>
       <c r="L165" s="18"/>
@@ -3120,18 +3189,22 @@
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="21">
-        <v>868</v>
-      </c>
-      <c r="B166" s="22"/>
+        <v>867</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D166" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="8" t="s">
-        <v>7</v>
+      <c r="F166" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G166" s="21"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J166" s="21"/>
       <c r="K166" s="18"/>
       <c r="L166" s="18"/>
@@ -3150,7 +3223,7 @@
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="21">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B167" s="22"/>
       <c r="D167" s="8" t="s">
@@ -3179,17 +3252,19 @@
       <c r="X167" s="18"/>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A168" s="30">
-        <v>870</v>
-      </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
-      <c r="I168" s="30"/>
+      <c r="A168" s="21">
+        <v>869</v>
+      </c>
+      <c r="B168" s="22"/>
+      <c r="D168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="21"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="21"/>
       <c r="J168" s="21"/>
       <c r="K168" s="18"/>
       <c r="L168" s="18"/>
@@ -3208,7 +3283,7 @@
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
@@ -3236,7 +3311,7 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -3264,7 +3339,7 @@
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -3292,7 +3367,7 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="30">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -3320,7 +3395,7 @@
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="30">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -3330,32 +3405,34 @@
       <c r="G173" s="30"/>
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="17"/>
-      <c r="M173" s="17"/>
-      <c r="N173" s="17"/>
-      <c r="O173" s="17"/>
-      <c r="P173" s="17"/>
-      <c r="Q173" s="17"/>
-      <c r="R173" s="17"/>
-      <c r="S173" s="17"/>
-      <c r="T173" s="17"/>
-      <c r="U173" s="17"/>
-      <c r="V173" s="17"/>
-      <c r="W173" s="17"/>
-      <c r="X173" s="17"/>
+      <c r="J173" s="21"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+      <c r="O173" s="18"/>
+      <c r="P173" s="18"/>
+      <c r="Q173" s="18"/>
+      <c r="R173" s="18"/>
+      <c r="S173" s="18"/>
+      <c r="T173" s="18"/>
+      <c r="U173" s="18"/>
+      <c r="V173" s="18"/>
+      <c r="W173" s="18"/>
+      <c r="X173" s="18"/>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A174" s="21">
-        <v>876</v>
-      </c>
-      <c r="B174" s="22"/>
-      <c r="D174" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A174" s="30">
+        <v>875</v>
+      </c>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
       <c r="K174" s="17"/>
       <c r="L174" s="17"/>
       <c r="M174" s="17"/>
@@ -3371,23 +3448,17 @@
       <c r="W174" s="17"/>
       <c r="X174" s="17"/>
     </row>
-    <row r="175" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="21">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B175" s="22"/>
-      <c r="C175" s="12"/>
       <c r="D175" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="12"/>
       <c r="F175" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
       <c r="K175" s="17"/>
       <c r="L175" s="17"/>
       <c r="M175" s="17"/>
@@ -3403,17 +3474,23 @@
       <c r="W175" s="17"/>
       <c r="X175" s="17"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B176" s="22"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E176" s="12"/>
       <c r="F176" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
       <c r="K176" s="17"/>
       <c r="L176" s="17"/>
       <c r="M176" s="17"/>
@@ -3430,17 +3507,16 @@
       <c r="X176" s="17"/>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A177" s="30">
-        <v>879</v>
-      </c>
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
-      <c r="I177" s="30"/>
+      <c r="A177" s="21">
+        <v>878</v>
+      </c>
+      <c r="B177" s="22"/>
+      <c r="D177" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="K177" s="17"/>
       <c r="L177" s="17"/>
       <c r="M177" s="17"/>
@@ -3456,23 +3532,18 @@
       <c r="W177" s="17"/>
       <c r="X177" s="17"/>
     </row>
-    <row r="178" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="21">
-        <v>880</v>
-      </c>
-      <c r="B178" s="22"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="12"/>
-      <c r="F178" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A178" s="30">
+        <v>879</v>
+      </c>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
       <c r="K178" s="17"/>
       <c r="L178" s="17"/>
       <c r="M178" s="17"/>
@@ -3488,17 +3559,23 @@
       <c r="W178" s="17"/>
       <c r="X178" s="17"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B179" s="22"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E179" s="12"/>
       <c r="F179" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
       <c r="K179" s="17"/>
       <c r="L179" s="17"/>
       <c r="M179" s="17"/>
@@ -3516,11 +3593,11 @@
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="21">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B180" s="22"/>
-      <c r="D180" s="13" t="s">
-        <v>15</v>
+      <c r="D180" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>7</v>
@@ -3542,16 +3619,15 @@
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="21">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B181" s="22"/>
-      <c r="D181" s="8" t="s">
-        <v>7</v>
+      <c r="D181" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F181" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H181" s="21"/>
       <c r="K181" s="17"/>
       <c r="L181" s="17"/>
       <c r="M181" s="17"/>
@@ -3568,17 +3644,17 @@
       <c r="X181" s="17"/>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A182" s="30">
-        <v>884</v>
-      </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="30"/>
+      <c r="A182" s="21">
+        <v>883</v>
+      </c>
+      <c r="B182" s="22"/>
+      <c r="D182" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H182" s="21"/>
       <c r="K182" s="17"/>
       <c r="L182" s="17"/>
       <c r="M182" s="17"/>
@@ -3596,7 +3672,7 @@
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
@@ -3604,7 +3680,7 @@
       <c r="E183" s="30"/>
       <c r="F183" s="11"/>
       <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
+      <c r="H183" s="11"/>
       <c r="I183" s="30"/>
       <c r="K183" s="17"/>
       <c r="L183" s="17"/>
@@ -3621,9 +3697,9 @@
       <c r="W183" s="17"/>
       <c r="X183" s="17"/>
     </row>
-    <row r="184" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -3633,7 +3709,6 @@
       <c r="G184" s="30"/>
       <c r="H184" s="30"/>
       <c r="I184" s="30"/>
-      <c r="J184" s="12"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17"/>
       <c r="M184" s="17"/>
@@ -3649,9 +3724,9 @@
       <c r="W184" s="17"/>
       <c r="X184" s="17"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
@@ -3661,10 +3736,25 @@
       <c r="G185" s="30"/>
       <c r="H185" s="30"/>
       <c r="I185" s="30"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="17"/>
+      <c r="N185" s="17"/>
+      <c r="O185" s="17"/>
+      <c r="P185" s="17"/>
+      <c r="Q185" s="17"/>
+      <c r="R185" s="17"/>
+      <c r="S185" s="17"/>
+      <c r="T185" s="17"/>
+      <c r="U185" s="17"/>
+      <c r="V185" s="17"/>
+      <c r="W185" s="17"/>
+      <c r="X185" s="17"/>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="30">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -3677,7 +3767,7 @@
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
@@ -3688,9 +3778,9 @@
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -3700,12 +3790,10 @@
       <c r="G188" s="30"/>
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
-      <c r="J188" s="30"/>
-      <c r="K188" s="3"/>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="30">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -3719,21 +3807,23 @@
       <c r="K189" s="3"/>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A190" s="21">
-        <v>892</v>
-      </c>
-      <c r="B190" s="22"/>
-      <c r="D190" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H190" s="21"/>
+      <c r="A190" s="30">
+        <v>891</v>
+      </c>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
+      <c r="K190" s="3"/>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="21">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B191" s="22"/>
       <c r="D191" s="8" t="s">
@@ -3746,7 +3836,7 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="21">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B192" s="22"/>
       <c r="D192" s="8" t="s">
@@ -3759,36 +3849,38 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="21">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B193" s="22"/>
-      <c r="D193" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F193" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" s="20"/>
-      <c r="I193" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="D193" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H193" s="21"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="21">
-        <v>896</v>
-      </c>
-      <c r="B194" s="22"/>
-      <c r="D194" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>7</v>
+        <v>895</v>
+      </c>
+      <c r="B194" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="H194" s="20"/>
+      <c r="I194" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="21">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B195" s="22"/>
       <c r="D195" s="8" t="s">
@@ -3801,7 +3893,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="21">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B196" s="22"/>
       <c r="D196" s="8" t="s">
@@ -3810,12 +3902,11 @@
       <c r="F196" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J196" s="30"/>
-      <c r="K196" s="3"/>
+      <c r="H196" s="20"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="21">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B197" s="22"/>
       <c r="D197" s="8" t="s">
@@ -3824,10 +3915,12 @@
       <c r="F197" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="J197" s="30"/>
+      <c r="K197" s="3"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="21">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B198" s="22"/>
       <c r="D198" s="8" t="s">
@@ -3839,34 +3932,36 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="21">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B199" s="22"/>
-      <c r="D199" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F199" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I199" s="8" t="s">
+      <c r="D199" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="21">
-        <v>902</v>
-      </c>
-      <c r="B200" s="22"/>
-      <c r="D200" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B200" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="21">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B201" s="22"/>
       <c r="D201" s="8" t="s">
@@ -3875,11 +3970,10 @@
       <c r="F201" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K201" s="17"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="21">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B202" s="22"/>
       <c r="D202" s="8" t="s">
@@ -3892,7 +3986,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="21">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B203" s="22"/>
       <c r="D203" s="8" t="s">
@@ -3905,81 +3999,87 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="21">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B204" s="22"/>
-      <c r="D204" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F204" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="8" t="s">
+      <c r="D204" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K204" s="17"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="21">
-        <v>907</v>
-      </c>
-      <c r="B205" s="22"/>
+        <v>906</v>
+      </c>
+      <c r="B205" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D205" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I205" s="29" t="s">
-        <v>14</v>
+      <c r="I205" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="K205" s="17"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="21">
-        <v>908</v>
-      </c>
-      <c r="B206" s="22"/>
-      <c r="D206" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>7</v>
+        <v>907</v>
+      </c>
+      <c r="B206" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="K206" s="17"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="21">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B207" s="22"/>
-      <c r="D207" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I207" s="29" t="s">
-        <v>14</v>
+      <c r="D207" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="K207" s="17"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="21">
-        <v>910</v>
-      </c>
-      <c r="B208" s="22"/>
-      <c r="D208" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>7</v>
+        <v>909</v>
+      </c>
+      <c r="B208" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="K208" s="17"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="21">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B209" s="22"/>
       <c r="D209" s="8" t="s">
@@ -3990,28 +4090,22 @@
       </c>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="21">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B210" s="22"/>
-      <c r="C210" s="12"/>
       <c r="D210" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E210" s="12"/>
       <c r="F210" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
-      <c r="J210" s="12"/>
       <c r="K210" s="17"/>
     </row>
     <row r="211" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B211" s="22"/>
       <c r="C211" s="12"/>
@@ -4028,9 +4122,9 @@
       <c r="J211" s="12"/>
       <c r="K211" s="17"/>
     </row>
-    <row r="212" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B212" s="22"/>
       <c r="C212" s="12"/>
@@ -4038,48 +4132,54 @@
         <v>7</v>
       </c>
       <c r="E212" s="12"/>
-      <c r="F212" s="13" t="s">
-        <v>15</v>
+      <c r="F212" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
-      <c r="I212" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="I212" s="12"/>
       <c r="J212" s="12"/>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="21">
+        <v>914</v>
+      </c>
+      <c r="B213" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" s="12"/>
+      <c r="D213" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="12"/>
+      <c r="F213" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J213" s="12"/>
+      <c r="K213" s="17"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="21">
         <v>915</v>
       </c>
-      <c r="B213" s="22"/>
-      <c r="D213" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K213" s="17"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="30">
-        <v>916</v>
-      </c>
-      <c r="B214" s="30"/>
-      <c r="C214" s="30"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="11"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="30"/>
-      <c r="I214" s="30"/>
-      <c r="J214" s="30"/>
-      <c r="K214" s="19"/>
+      <c r="B214" s="22"/>
+      <c r="D214" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K214" s="17"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="30">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
@@ -4094,7 +4194,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="30">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B216" s="30"/>
       <c r="C216" s="30"/>
@@ -4108,69 +4208,73 @@
       <c r="K216" s="19"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="21">
-        <v>919</v>
-      </c>
-      <c r="B217" s="22"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="21"/>
-      <c r="F217" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
-      <c r="J217" s="21"/>
-      <c r="K217" s="18"/>
+      <c r="A217" s="30">
+        <v>918</v>
+      </c>
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="19"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="21">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B218" s="22"/>
-      <c r="D218" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="C218" s="21"/>
+      <c r="D218" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="21"/>
       <c r="F218" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I218" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K218" s="17"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+      <c r="J218" s="21"/>
+      <c r="K218" s="18"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="21">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B219" s="22"/>
-      <c r="D219" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F219" s="13" t="s">
-        <v>15</v>
+      <c r="D219" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="K219" s="17"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="21">
-        <v>922</v>
-      </c>
-      <c r="B220" s="22"/>
+        <v>921</v>
+      </c>
+      <c r="B220" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D220" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F220" s="8" t="s">
-        <v>7</v>
+      <c r="F220" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="K220" s="17"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="21">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B221" s="22"/>
       <c r="D221" s="8" t="s">
@@ -4183,7 +4287,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="21">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B222" s="22"/>
       <c r="D222" s="8" t="s">
@@ -4196,39 +4300,39 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="21">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B223" s="22"/>
-      <c r="C223" s="21"/>
       <c r="D223" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E223" s="21"/>
       <c r="F223" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G223" s="21"/>
-      <c r="H223" s="21"/>
-      <c r="I223" s="21"/>
-      <c r="J223" s="21"/>
-      <c r="K223" s="18"/>
+      <c r="K223" s="17"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="21">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B224" s="22"/>
+      <c r="C224" s="21"/>
       <c r="D224" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E224" s="21"/>
       <c r="F224" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K224" s="17"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+      <c r="I224" s="21"/>
+      <c r="J224" s="21"/>
+      <c r="K224" s="18"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="21">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B225" s="22"/>
       <c r="D225" s="8" t="s">
@@ -4241,39 +4345,39 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="21">
+        <v>927</v>
+      </c>
+      <c r="B226" s="22"/>
+      <c r="D226" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K226" s="17"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="21">
         <v>928</v>
       </c>
-      <c r="B226" s="22"/>
-      <c r="D226" s="29" t="s">
+      <c r="B227" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F226" s="29" t="s">
+      <c r="F227" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H226" s="20"/>
-      <c r="I226" s="29" t="s">
+      <c r="H227" s="20"/>
+      <c r="I227" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K226" s="17"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="30">
-        <v>929</v>
-      </c>
-      <c r="B227" s="30"/>
-      <c r="C227" s="30"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="30"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="30"/>
-      <c r="H227" s="30"/>
-      <c r="I227" s="30"/>
-      <c r="J227" s="30"/>
-      <c r="K227" s="19"/>
+      <c r="K227" s="17"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="30">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B228" s="30"/>
       <c r="C228" s="30"/>
@@ -4287,26 +4391,27 @@
       <c r="K228" s="19"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="21">
-        <v>931</v>
-      </c>
-      <c r="B229" s="22"/>
-      <c r="D229" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H229" s="21"/>
-      <c r="K229" s="17"/>
+      <c r="A229" s="30">
+        <v>930</v>
+      </c>
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="30"/>
+      <c r="H229" s="30"/>
+      <c r="I229" s="30"/>
+      <c r="J229" s="30"/>
+      <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="21">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B230" s="22"/>
-      <c r="D230" s="29" t="s">
-        <v>14</v>
+      <c r="D230" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F230" s="8" t="s">
         <v>7</v>
@@ -4316,11 +4421,11 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="21">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B231" s="22"/>
-      <c r="D231" s="8" t="s">
-        <v>7</v>
+      <c r="D231" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="F231" s="8" t="s">
         <v>7</v>
@@ -4330,7 +4435,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="21">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B232" s="22"/>
       <c r="D232" s="8" t="s">
@@ -4344,7 +4449,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="21">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B233" s="22"/>
       <c r="D233" s="8" t="s">
@@ -4358,7 +4463,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="21">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B234" s="22"/>
       <c r="D234" s="8" t="s">
@@ -4371,77 +4476,79 @@
       <c r="K234" s="17"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="30">
+      <c r="A235" s="21">
+        <v>936</v>
+      </c>
+      <c r="B235" s="22"/>
+      <c r="D235" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H235" s="21"/>
+      <c r="K235" s="17"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="30">
         <v>937</v>
       </c>
-      <c r="B235" s="30"/>
-      <c r="C235" s="30"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="30"/>
-      <c r="F235" s="11"/>
-      <c r="G235" s="30"/>
-      <c r="H235" s="30"/>
-      <c r="I235" s="30"/>
-      <c r="J235" s="30"/>
-      <c r="K235" s="19"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="21">
-        <v>938</v>
-      </c>
-      <c r="B236" s="22"/>
-      <c r="D236" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F236" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" s="21"/>
-      <c r="I236" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K236" s="17"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="30"/>
+      <c r="H236" s="30"/>
+      <c r="I236" s="30"/>
+      <c r="J236" s="30"/>
+      <c r="K236" s="19"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="21">
-        <v>939</v>
-      </c>
-      <c r="B237" s="22"/>
+        <v>938</v>
+      </c>
+      <c r="B237" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D237" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F237" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H237" s="20"/>
+      <c r="F237" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="21"/>
+      <c r="I237" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="K237" s="17"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="21">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B238" s="22"/>
-      <c r="D238" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I238" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D238" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H238" s="20"/>
       <c r="K238" s="17"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="21">
-        <v>941</v>
-      </c>
-      <c r="B239" s="22"/>
-      <c r="D239" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F239" s="29" t="s">
-        <v>14</v>
+        <v>940</v>
+      </c>
+      <c r="B239" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I239" s="8" t="s">
         <v>7</v>
@@ -4450,52 +4557,61 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="21">
-        <v>942</v>
-      </c>
-      <c r="B240" s="22"/>
-      <c r="D240" s="29" t="s">
-        <v>14</v>
+        <v>941</v>
+      </c>
+      <c r="B240" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F240" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I240" s="29" t="s">
-        <v>14</v>
+      <c r="I240" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="K240" s="17"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="21">
-        <v>943</v>
-      </c>
-      <c r="B241" s="22"/>
-      <c r="D241" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F241" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>7</v>
+        <v>942</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I241" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="K241" s="17"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="21">
-        <v>944</v>
-      </c>
-      <c r="B242" s="22"/>
-      <c r="D242" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F242" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B242" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I242" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K242" s="17"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="21">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B243" s="22"/>
       <c r="D243" s="8" t="s">
@@ -4508,7 +4624,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="21">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B244" s="22"/>
       <c r="D244" s="8" t="s">
@@ -4521,7 +4637,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="21">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B245" s="22"/>
       <c r="D245" s="8" t="s">
@@ -4534,65 +4650,69 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="21">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B246" s="22"/>
-      <c r="D246" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F246" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I246" s="8" t="s">
+      <c r="D246" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K246" s="17"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="21">
-        <v>949</v>
-      </c>
-      <c r="B247" s="22"/>
-      <c r="D247" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F247" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B247" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K247" s="17"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="21">
+        <v>949</v>
+      </c>
+      <c r="B248" s="22"/>
+      <c r="D248" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K248" s="17"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="21">
         <v>950</v>
       </c>
-      <c r="B248" s="22"/>
-      <c r="D248" s="29" t="s">
+      <c r="B249" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D249" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F248" s="29" t="s">
+      <c r="F249" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I248" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K248" s="17"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="24">
-        <v>951</v>
-      </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="24"/>
-      <c r="D249" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="I249" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K249" s="17"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B250" s="22"/>
       <c r="C250" s="24"/>
@@ -4604,8 +4724,8 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="21">
-        <v>953</v>
+      <c r="A251" s="24">
+        <v>952</v>
       </c>
       <c r="B251" s="22"/>
       <c r="C251" s="24"/>
@@ -4618,11 +4738,12 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="21">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B252" s="22"/>
-      <c r="D252" s="13" t="s">
-        <v>15</v>
+      <c r="C252" s="24"/>
+      <c r="D252" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F252" s="8" t="s">
         <v>7</v>
@@ -4630,11 +4751,11 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="21">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B253" s="22"/>
-      <c r="D253" s="8" t="s">
-        <v>7</v>
+      <c r="D253" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F253" s="8" t="s">
         <v>7</v>
@@ -4642,7 +4763,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="21">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B254" s="22"/>
       <c r="D254" s="8" t="s">
@@ -4654,7 +4775,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="21">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B255" s="22"/>
       <c r="D255" s="8" t="s">
@@ -4666,7 +4787,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="21">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B256" s="22"/>
       <c r="D256" s="8" t="s">
@@ -4678,16 +4799,19 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="21">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B257" s="22"/>
+      <c r="D257" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F257" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="21">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B258" s="22"/>
       <c r="F258" s="8" t="s">
@@ -4696,7 +4820,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="21">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B259" s="22"/>
       <c r="F259" s="8" t="s">
@@ -4705,23 +4829,22 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="21">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B260" s="22"/>
-      <c r="F260" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I260" s="8" t="s">
+      <c r="F260" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="21">
-        <v>963</v>
-      </c>
-      <c r="B261" s="22"/>
-      <c r="F261" s="29" t="s">
-        <v>14</v>
+        <v>962</v>
+      </c>
+      <c r="B261" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I261" s="8" t="s">
         <v>7</v>
@@ -4729,16 +4852,21 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="21">
-        <v>964</v>
-      </c>
-      <c r="B262" s="22"/>
-      <c r="F262" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="B262" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F262" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I262" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="21">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B263" s="22"/>
       <c r="F263" s="8" t="s">
@@ -4747,40 +4875,45 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="21">
-        <v>966</v>
+        <f>+B33</f>
+        <v>0</v>
       </c>
       <c r="B264" s="22"/>
-      <c r="F264" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I264" s="8" t="s">
+      <c r="F264" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="21">
-        <v>967</v>
-      </c>
-      <c r="B265" s="22"/>
-      <c r="F265" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I265" s="29" t="s">
-        <v>18</v>
+        <v>966</v>
+      </c>
+      <c r="B265" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F265" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I265" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="21">
-        <v>968</v>
-      </c>
-      <c r="B266" s="22"/>
-      <c r="F266" s="8" t="s">
-        <v>7</v>
+        <v>967</v>
+      </c>
+      <c r="B266" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F266" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I266" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="21">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B267" s="22"/>
       <c r="F267" s="8" t="s">
@@ -4789,7 +4922,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="21">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B268" s="22"/>
       <c r="F268" s="8" t="s">
@@ -4798,7 +4931,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="21">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B269" s="22"/>
       <c r="F269" s="8" t="s">
@@ -4806,27 +4939,27 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="33">
+      <c r="A270" s="21">
+        <v>971</v>
+      </c>
+      <c r="B270" s="22"/>
+      <c r="F270" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="33">
         <v>972</v>
       </c>
-      <c r="B270" s="33"/>
-      <c r="C270" s="33"/>
-      <c r="D270" s="33"/>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="21">
-        <v>973</v>
-      </c>
-      <c r="B271" s="22"/>
-      <c r="F271" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="33"/>
+      <c r="F271" s="33"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="21">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B272" s="22"/>
       <c r="F272" s="8" t="s">
@@ -4835,28 +4968,30 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="21">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B273" s="22"/>
-      <c r="F273" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I273" s="29" t="s">
-        <v>14</v>
+      <c r="F273" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="21">
-        <v>976</v>
-      </c>
-      <c r="B274" s="22"/>
-      <c r="F274" s="8" t="s">
-        <v>7</v>
+        <v>975</v>
+      </c>
+      <c r="B274" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F274" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="21">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B275" s="22"/>
       <c r="F275" s="8" t="s">
@@ -4865,29 +5000,30 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="21">
+        <v>977</v>
+      </c>
+      <c r="B276" s="22"/>
+      <c r="F276" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="21">
         <v>978</v>
       </c>
-      <c r="B276" s="22"/>
-      <c r="F276" s="29" t="s">
+      <c r="B277" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F277" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I276" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="33">
-        <v>979</v>
-      </c>
-      <c r="B277" s="33"/>
-      <c r="C277" s="33"/>
-      <c r="D277" s="33"/>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33"/>
+      <c r="I277" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="33">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B278" s="33"/>
       <c r="C278" s="33"/>
@@ -4896,17 +5032,18 @@
       <c r="F278" s="33"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="21">
-        <v>981</v>
-      </c>
-      <c r="B279" s="22"/>
-      <c r="F279" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A279" s="33">
+        <v>980</v>
+      </c>
+      <c r="B279" s="33"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="33"/>
+      <c r="F279" s="33"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="21">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B280" s="22"/>
       <c r="F280" s="8" t="s">
@@ -4915,7 +5052,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="21">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B281" s="22"/>
       <c r="F281" s="8" t="s">
@@ -4924,7 +5061,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="21">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B282" s="22"/>
       <c r="F282" s="8" t="s">
@@ -4932,27 +5069,27 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" s="33">
+      <c r="A283" s="21">
+        <v>984</v>
+      </c>
+      <c r="B283" s="22"/>
+      <c r="F283" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="33">
         <v>985</v>
       </c>
-      <c r="B283" s="33"/>
-      <c r="C283" s="33"/>
-      <c r="D283" s="33"/>
-      <c r="E283" s="33"/>
-      <c r="F283" s="33"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="21">
-        <v>986</v>
-      </c>
-      <c r="B284" s="22"/>
-      <c r="F284" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B284" s="33"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="33"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="21">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B285" s="22"/>
       <c r="F285" s="8" t="s">
@@ -4961,28 +5098,30 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="21">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B286" s="22"/>
-      <c r="F286" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I286" s="29" t="s">
-        <v>17</v>
+      <c r="F286" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="21">
-        <v>989</v>
-      </c>
-      <c r="B287" s="22"/>
-      <c r="F287" s="8" t="s">
-        <v>7</v>
+        <v>988</v>
+      </c>
+      <c r="B287" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F287" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I287" s="29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="21">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B288" s="22"/>
       <c r="F288" s="8" t="s">
@@ -4990,18 +5129,17 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="33">
-        <v>991</v>
-      </c>
-      <c r="B289" s="33"/>
-      <c r="C289" s="33"/>
-      <c r="D289" s="33"/>
-      <c r="E289" s="33"/>
-      <c r="F289" s="33"/>
+      <c r="A289" s="21">
+        <v>990</v>
+      </c>
+      <c r="B289" s="22"/>
+      <c r="F289" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="33">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
@@ -5010,29 +5148,32 @@
       <c r="F290" s="33"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" s="21">
-        <v>993</v>
-      </c>
-      <c r="B291" s="22"/>
-      <c r="F291" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I291" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A291" s="33">
+        <v>992</v>
+      </c>
+      <c r="B291" s="33"/>
+      <c r="C291" s="33"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="33"/>
+      <c r="F291" s="33"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="21">
-        <v>994</v>
-      </c>
-      <c r="B292" s="22"/>
-      <c r="F292" s="8" t="s">
-        <v>7</v>
+        <v>993</v>
+      </c>
+      <c r="B292" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F292" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I292" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="21">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B293" s="22"/>
       <c r="F293" s="8" t="s">
@@ -5041,7 +5182,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="21">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B294" s="22"/>
       <c r="F294" s="8" t="s">
@@ -5050,7 +5191,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="21">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B295" s="22"/>
       <c r="F295" s="8" t="s">
@@ -5059,7 +5200,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="21">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B296" s="22"/>
       <c r="F296" s="8" t="s">
@@ -5068,7 +5209,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="21">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B297" s="22"/>
       <c r="F297" s="8" t="s">
@@ -5076,18 +5217,17 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="33">
-        <v>1000</v>
-      </c>
-      <c r="B298" s="33"/>
-      <c r="C298" s="33"/>
-      <c r="D298" s="33"/>
-      <c r="E298" s="33"/>
-      <c r="F298" s="33"/>
+      <c r="A298" s="21">
+        <v>999</v>
+      </c>
+      <c r="B298" s="22"/>
+      <c r="F298" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="33">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B299" s="33"/>
       <c r="C299" s="33"/>
@@ -5096,60 +5236,65 @@
       <c r="F299" s="33"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="21">
+      <c r="A300" s="33">
+        <v>1001</v>
+      </c>
+      <c r="B300" s="33"/>
+      <c r="C300" s="33"/>
+      <c r="D300" s="33"/>
+      <c r="E300" s="33"/>
+      <c r="F300" s="33"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="21">
         <v>1002</v>
       </c>
-      <c r="B300" s="22"/>
-      <c r="F300" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="33">
+      <c r="B301" s="22"/>
+      <c r="F301" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="33">
         <v>1003</v>
       </c>
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
-      <c r="D301" s="33"/>
-      <c r="E301" s="33"/>
-      <c r="F301" s="33"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="21">
-        <v>1004</v>
-      </c>
-      <c r="B302" s="22"/>
-      <c r="F302" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I302" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="B302" s="33"/>
+      <c r="C302" s="33"/>
+      <c r="D302" s="33"/>
+      <c r="E302" s="33"/>
+      <c r="F302" s="33"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="21">
-        <v>1005</v>
-      </c>
-      <c r="B303" s="22"/>
-      <c r="F303" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I303" s="13" t="s">
-        <v>15</v>
+        <v>1004</v>
+      </c>
+      <c r="B303" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F303" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I303" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="21">
-        <v>1006</v>
-      </c>
-      <c r="B304" s="22"/>
-      <c r="F304" s="8" t="s">
-        <v>7</v>
+        <v>1005</v>
+      </c>
+      <c r="B304" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F304" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I304" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="21">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B305" s="22"/>
       <c r="F305" s="8" t="s">
@@ -5158,7 +5303,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="21">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B306" s="22"/>
       <c r="F306" s="8" t="s">
@@ -5166,18 +5311,17 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="33">
-        <v>1009</v>
-      </c>
-      <c r="B307" s="33"/>
-      <c r="C307" s="33"/>
-      <c r="D307" s="33"/>
-      <c r="E307" s="33"/>
-      <c r="F307" s="33"/>
+      <c r="A307" s="21">
+        <v>1008</v>
+      </c>
+      <c r="B307" s="22"/>
+      <c r="F307" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="33">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B308" s="33"/>
       <c r="C308" s="33"/>
@@ -5186,17 +5330,18 @@
       <c r="F308" s="33"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="21">
-        <v>1011</v>
-      </c>
-      <c r="B309" s="22"/>
-      <c r="F309" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A309" s="33">
+        <v>1010</v>
+      </c>
+      <c r="B309" s="33"/>
+      <c r="C309" s="33"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="33"/>
+      <c r="F309" s="33"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="21">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B310" s="22"/>
       <c r="F310" s="8" t="s">
@@ -5205,59 +5350,63 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="21">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B311" s="22"/>
-      <c r="F311" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I311" s="8" t="s">
+      <c r="F311" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="21">
+        <v>1013</v>
+      </c>
+      <c r="B312" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I312" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="21">
         <v>1014</v>
       </c>
-      <c r="B312" s="22"/>
-      <c r="F312" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="33">
+      <c r="B313" s="22"/>
+      <c r="F313" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="33">
         <v>1015</v>
       </c>
-      <c r="B313" s="33"/>
-      <c r="C313" s="33"/>
-      <c r="D313" s="33"/>
-      <c r="E313" s="33"/>
-      <c r="F313" s="33"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="21">
-        <v>1016</v>
-      </c>
-      <c r="B314" s="22"/>
-      <c r="F314" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I314" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B314" s="33"/>
+      <c r="C314" s="33"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="33"/>
+      <c r="F314" s="33"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="21">
-        <v>1017</v>
-      </c>
-      <c r="B315" s="22"/>
-      <c r="F315" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B315" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F315" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I315" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="21">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B316" s="22"/>
       <c r="F316" s="8" t="s">
@@ -5266,7 +5415,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="21">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B317" s="22"/>
       <c r="F317" s="8" t="s">
@@ -5275,7 +5424,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="21">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B318" s="22"/>
       <c r="F318" s="8" t="s">
@@ -5284,7 +5433,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="21">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B319" s="22"/>
       <c r="F319" s="8" t="s">
@@ -5293,28 +5442,30 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="21">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B320" s="22"/>
-      <c r="F320" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I320" s="8" t="s">
+      <c r="F320" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="21">
-        <v>1023</v>
-      </c>
-      <c r="B321" s="22"/>
-      <c r="F321" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B321" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F321" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I321" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="21">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B322" s="22"/>
       <c r="F322" s="8" t="s">
@@ -5323,7 +5474,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="21">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B323" s="22"/>
       <c r="F323" s="8" t="s">
@@ -5331,46 +5482,46 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" s="33">
+      <c r="A324" s="21">
+        <v>1025</v>
+      </c>
+      <c r="B324" s="22"/>
+      <c r="F324" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="33">
         <v>1026</v>
       </c>
-      <c r="B324" s="33"/>
-      <c r="C324" s="33"/>
-      <c r="D324" s="33"/>
-      <c r="E324" s="33"/>
-      <c r="F324" s="33"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" s="21">
+      <c r="B325" s="33"/>
+      <c r="C325" s="33"/>
+      <c r="D325" s="33"/>
+      <c r="E325" s="33"/>
+      <c r="F325" s="33"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="21">
         <v>1027</v>
       </c>
-      <c r="B325" s="22"/>
-      <c r="F325" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" s="33">
+      <c r="B326" s="22"/>
+      <c r="F326" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="33">
         <v>1028</v>
       </c>
-      <c r="B326" s="33"/>
-      <c r="C326" s="33"/>
-      <c r="D326" s="33"/>
-      <c r="E326" s="33"/>
-      <c r="F326" s="33"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" s="21">
-        <v>1029</v>
-      </c>
-      <c r="B327" s="22"/>
-      <c r="F327" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B327" s="33"/>
+      <c r="C327" s="33"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="33"/>
+      <c r="F327" s="33"/>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="21">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B328" s="22"/>
       <c r="F328" s="8" t="s">
@@ -5379,7 +5530,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="21">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B329" s="22"/>
       <c r="F329" s="8" t="s">
@@ -5388,28 +5539,30 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="21">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B330" s="22"/>
-      <c r="F330" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I330" s="8" t="s">
+      <c r="F330" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="21">
-        <v>1033</v>
-      </c>
-      <c r="B331" s="22"/>
-      <c r="F331" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B331" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I331" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="21">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B332" s="22"/>
       <c r="F332" s="8" t="s">
@@ -5418,7 +5571,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="21">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B333" s="22"/>
       <c r="F333" s="8" t="s">
@@ -5427,159 +5580,178 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="21">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B334" s="22"/>
-      <c r="F334" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I334" s="8" t="s">
+      <c r="F334" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="21">
-        <v>1037</v>
-      </c>
-      <c r="B335" s="22"/>
-      <c r="F335" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B335" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F335" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I335" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="21">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B336" s="22"/>
       <c r="F336" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="21">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B337" s="22"/>
       <c r="F337" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="21">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B338" s="22"/>
       <c r="F338" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="21">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B339" s="22"/>
       <c r="F339" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A340" s="21">
+    <row r="340" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="37">
+        <v>1041</v>
+      </c>
+      <c r="B340" s="37"/>
+      <c r="C340" s="37"/>
+      <c r="D340" s="37"/>
+      <c r="E340" s="37"/>
+      <c r="F340" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G340" s="37"/>
+      <c r="H340" s="37"/>
+      <c r="I340" s="37"/>
+      <c r="J340" s="37"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="21">
         <v>1042</v>
       </c>
-      <c r="B340" s="22"/>
-      <c r="F340" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A341" s="33">
+      <c r="B341" s="22"/>
+      <c r="F341" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="33">
         <v>1043</v>
       </c>
-      <c r="B341" s="33"/>
-      <c r="C341" s="33"/>
-      <c r="D341" s="33"/>
-      <c r="E341" s="33"/>
-      <c r="F341" s="33"/>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" s="21">
+      <c r="B342" s="33"/>
+      <c r="C342" s="33"/>
+      <c r="D342" s="33"/>
+      <c r="E342" s="33"/>
+      <c r="F342" s="33"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="21">
         <v>1044</v>
-      </c>
-      <c r="B342" s="22"/>
-      <c r="F342" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" s="21">
-        <v>1045</v>
       </c>
       <c r="B343" s="22"/>
       <c r="F343" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="21">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B344" s="22"/>
       <c r="F344" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="21">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B345" s="22"/>
       <c r="F345" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="21">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B346" s="22"/>
       <c r="F346" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="21">
+        <v>1048</v>
+      </c>
+      <c r="B347" s="22"/>
+      <c r="F347" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="21">
         <v>1049</v>
       </c>
-      <c r="B347" s="22"/>
-      <c r="F347" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I347" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A348" s="21">
-        <v>1050</v>
-      </c>
-      <c r="B348" s="22"/>
+      <c r="B348" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="F348" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I348" s="29" t="s">
+      <c r="I348" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="21">
+        <v>1050</v>
+      </c>
+      <c r="B349" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" s="29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A349" s="21"/>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I349" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="21"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="21"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="21"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
@@ -6925,6 +7097,9 @@
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="21"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6937,7 +7112,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6951,7 +7126,7 @@
         <v>9</v>
       </c>
       <c r="B1">
-        <f>COUNTA(Feuil1!D2:D416)</f>
+        <f>COUNTA(Feuil1!D3:D417)</f>
         <v>168</v>
       </c>
     </row>
@@ -6960,7 +7135,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Feuil1!D2:D401,"OK")</f>
+        <f>COUNTIF(Feuil1!D3:D402,"OK")</f>
         <v>131</v>
       </c>
     </row>
@@ -6969,7 +7144,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(Feuil1!D2:D401,"gain")</f>
+        <f>COUNTIF(Feuil1!D3:D402,"gain")</f>
         <v>21</v>
       </c>
     </row>
@@ -6978,7 +7153,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(Feuil1!D2:D401,"noise")</f>
+        <f>COUNTIF(Feuil1!D3:D402,"noise")</f>
         <v>14</v>
       </c>
     </row>
@@ -6987,7 +7162,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(Feuil1!D2:D401,"LINEA")</f>
+        <f>COUNTIF(Feuil1!D3:D402,"LINEA")</f>
         <v>2</v>
       </c>
     </row>
@@ -6996,7 +7171,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="17">
-        <f>COUNTA(Feuil1!F2:F424)</f>
+        <f>COUNTA(Feuil1!F3:F425)</f>
         <v>285</v>
       </c>
     </row>
@@ -7005,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="17">
-        <f>COUNTIF(Feuil1!F2:F409,"OK")</f>
+        <f>COUNTIF(Feuil1!F3:F410,"OK")</f>
         <v>229</v>
       </c>
     </row>
@@ -7014,7 +7189,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="17">
-        <f>COUNTIF(Feuil1!F2:F409,"gain")</f>
+        <f>COUNTIF(Feuil1!F3:F410,"gain")</f>
         <v>29</v>
       </c>
     </row>
@@ -7023,7 +7198,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="17">
-        <f>COUNTIF(Feuil1!F2:F409,"noise")</f>
+        <f>COUNTIF(Feuil1!F3:F410,"noise")</f>
         <v>21</v>
       </c>
     </row>
@@ -7032,7 +7207,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="17">
-        <f>COUNTIF(Feuil1!F2:F409,"LINEA")</f>
+        <f>COUNTIF(Feuil1!F3:F410,"LINEA")</f>
         <v>5</v>
       </c>
     </row>
@@ -7041,7 +7216,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(Feuil1!F2:F409,"POWER SUPPLY")</f>
+        <f>COUNTIF(Feuil1!F3:F410,"POWER SUPPLY")</f>
         <v>1</v>
       </c>
     </row>
